--- a/TaxFinder/Script/Core/Notas 12-09-2022.xlsx
+++ b/TaxFinder/Script/Core/Notas 12-09-2022.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,48 +463,27 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Devolução</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>156933</v>
+          <t>Saída</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>158361</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>05/08/2022</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="E2" t="n">
-        <v>119.38</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Devolução</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>156933</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>05/08/2022</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>119.38</t>
+          <t>12/09/2022</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>996.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>273.78</t>
         </is>
       </c>
     </row>
